--- a/zzzzz_potatomission.xlsx
+++ b/zzzzz_potatomission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game\TF2\MvM\Potato.tf\Mission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEAD35D-3731-4ACA-A1A1-44DD1BE2A4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFAE4F9-1515-44E4-9638-69F6DF84AAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9108C7C3-1D02-4681-ACF3-A5CC7178FD3B}"/>
   </bookViews>
@@ -44,6 +44,79 @@
     <externalReference r:id="rId27"/>
     <externalReference r:id="rId28"/>
     <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
+    <externalReference r:id="rId31"/>
+    <externalReference r:id="rId32"/>
+    <externalReference r:id="rId33"/>
+    <externalReference r:id="rId34"/>
+    <externalReference r:id="rId35"/>
+    <externalReference r:id="rId36"/>
+    <externalReference r:id="rId37"/>
+    <externalReference r:id="rId38"/>
+    <externalReference r:id="rId39"/>
+    <externalReference r:id="rId40"/>
+    <externalReference r:id="rId41"/>
+    <externalReference r:id="rId42"/>
+    <externalReference r:id="rId43"/>
+    <externalReference r:id="rId44"/>
+    <externalReference r:id="rId45"/>
+    <externalReference r:id="rId46"/>
+    <externalReference r:id="rId47"/>
+    <externalReference r:id="rId48"/>
+    <externalReference r:id="rId49"/>
+    <externalReference r:id="rId50"/>
+    <externalReference r:id="rId51"/>
+    <externalReference r:id="rId52"/>
+    <externalReference r:id="rId53"/>
+    <externalReference r:id="rId54"/>
+    <externalReference r:id="rId55"/>
+    <externalReference r:id="rId56"/>
+    <externalReference r:id="rId57"/>
+    <externalReference r:id="rId58"/>
+    <externalReference r:id="rId59"/>
+    <externalReference r:id="rId60"/>
+    <externalReference r:id="rId61"/>
+    <externalReference r:id="rId62"/>
+    <externalReference r:id="rId63"/>
+    <externalReference r:id="rId64"/>
+    <externalReference r:id="rId65"/>
+    <externalReference r:id="rId66"/>
+    <externalReference r:id="rId67"/>
+    <externalReference r:id="rId68"/>
+    <externalReference r:id="rId69"/>
+    <externalReference r:id="rId70"/>
+    <externalReference r:id="rId71"/>
+    <externalReference r:id="rId72"/>
+    <externalReference r:id="rId73"/>
+    <externalReference r:id="rId74"/>
+    <externalReference r:id="rId75"/>
+    <externalReference r:id="rId76"/>
+    <externalReference r:id="rId77"/>
+    <externalReference r:id="rId78"/>
+    <externalReference r:id="rId79"/>
+    <externalReference r:id="rId80"/>
+    <externalReference r:id="rId81"/>
+    <externalReference r:id="rId82"/>
+    <externalReference r:id="rId83"/>
+    <externalReference r:id="rId84"/>
+    <externalReference r:id="rId85"/>
+    <externalReference r:id="rId86"/>
+    <externalReference r:id="rId87"/>
+    <externalReference r:id="rId88"/>
+    <externalReference r:id="rId89"/>
+    <externalReference r:id="rId90"/>
+    <externalReference r:id="rId91"/>
+    <externalReference r:id="rId92"/>
+    <externalReference r:id="rId93"/>
+    <externalReference r:id="rId94"/>
+    <externalReference r:id="rId95"/>
+    <externalReference r:id="rId96"/>
+    <externalReference r:id="rId97"/>
+    <externalReference r:id="rId98"/>
+    <externalReference r:id="rId99"/>
+    <externalReference r:id="rId100"/>
+    <externalReference r:id="rId101"/>
+    <externalReference r:id="rId102"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="113">
   <si>
     <t>Difficulty</t>
   </si>
@@ -74,9 +147,6 @@
     <t>Difficulty (Rev)</t>
   </si>
   <si>
-    <t>not count April fools missions</t>
-  </si>
-  <si>
     <t>Map</t>
   </si>
   <si>
@@ -309,6 +379,105 @@
   </si>
   <si>
     <t>Coaltown</t>
+  </si>
+  <si>
+    <t>Sharp</t>
+  </si>
+  <si>
+    <t>Shiverpeak</t>
+  </si>
+  <si>
+    <t>Silentsky</t>
+  </si>
+  <si>
+    <t>Skangus</t>
+  </si>
+  <si>
+    <t>Skeleclipse</t>
+  </si>
+  <si>
+    <t>Skullcove</t>
+  </si>
+  <si>
+    <t>Snowpine</t>
+  </si>
+  <si>
+    <t>Spacepost</t>
+  </si>
+  <si>
+    <t>Spybase</t>
+  </si>
+  <si>
+    <t>Steep</t>
+  </si>
+  <si>
+    <t>Swirl</t>
+  </si>
+  <si>
+    <t>Swirl Event</t>
+  </si>
+  <si>
+    <t>Teien</t>
+  </si>
+  <si>
+    <t>Tensai</t>
+  </si>
+  <si>
+    <t>Trainyard</t>
+  </si>
+  <si>
+    <t>Transmission</t>
+  </si>
+  <si>
+    <t>Traumatic</t>
+  </si>
+  <si>
+    <t>Underground</t>
+  </si>
+  <si>
+    <t>Underworld</t>
+  </si>
+  <si>
+    <t>Villa</t>
+  </si>
+  <si>
+    <t>Waterfront</t>
+  </si>
+  <si>
+    <t>Waterlogged</t>
+  </si>
+  <si>
+    <t>Whitecliff</t>
+  </si>
+  <si>
+    <t>Whitecliff Event</t>
+  </si>
+  <si>
+    <t>Winterbridge</t>
+  </si>
+  <si>
+    <t>Wizardry</t>
+  </si>
+  <si>
+    <t>Yiresa</t>
+  </si>
+  <si>
+    <t>Yucatan Rcr</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total Mission</t>
+  </si>
+  <si>
+    <t>Counts Cell by Color</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Rev</t>
   </si>
 </sst>
 </file>
@@ -325,12 +494,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -345,11 +532,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,6 +619,60 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink100.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink101.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1096,6 +1341,28 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1128,7 +1395,29 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="I3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1141,6 +1430,33 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
             <v>1</v>
           </cell>
         </row>
@@ -1154,12 +1470,298 @@
             <v>1</v>
           </cell>
         </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
         <row r="6">
           <cell r="D6">
             <v>1</v>
           </cell>
         </row>
         <row r="7">
+          <cell r="E7">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="F3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="H4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink38.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink39.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
           <cell r="D7">
             <v>1</v>
           </cell>
@@ -1180,67 +1782,19 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="I3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
+<file path=xl/externalLinks/externalLink40.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
             <v>1</v>
           </cell>
         </row>
@@ -1260,9 +1814,12 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<file path=xl/externalLinks/externalLink41.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Sheet1"/>
     </sheetNames>
@@ -1273,15 +1830,23 @@
             <v>1</v>
           </cell>
         </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+        <row r="4">
+          <cell r="E4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink42.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Sheet1"/>
     </sheetNames>
@@ -1294,11 +1859,2116 @@
         </row>
         <row r="4">
           <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="J9">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink43.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink44.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
             <v>1</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink45.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink46.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink47.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink48.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink49.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="I3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink50.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink51.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink52.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink53.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink54.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink55.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink56.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink57.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink58.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink59.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink60.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink61.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink62.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink63.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink64.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink65.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink66.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink67.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="H3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="H4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink68.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink69.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink70.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink71.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="I3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="J11">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink72.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink73.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink74.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink75.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink76.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink77.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink78.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink79.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="F3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink80.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink81.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink82.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="E3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink83.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="H3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="I11">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink84.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="H3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink85.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink86.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink87.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink88.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink89.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink90.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink91.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink92.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink93.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink94.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink95.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink96.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink97.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink98.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink99.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
             <v>1</v>
           </cell>
         </row>
@@ -1605,10 +4275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF71BD33-9B99-4B1F-B460-F32774AE22E8}">
-  <dimension ref="B2:M76"/>
+  <dimension ref="B2:W104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N90" sqref="N90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1616,7 +4286,7 @@
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1627,41 +4297,53 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <f>SUM([1]Sheet1!$C$3:$C$105)</f>
@@ -1691,10 +4373,34 @@
         <f>SUM([1]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <f>SUM([2]Sheet1!$C$3:$C$105)</f>
@@ -1724,10 +4430,42 @@
         <f>SUM([2]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f>SUM(C4:C204)</f>
+        <v>74</v>
+      </c>
+      <c r="N5">
+        <f>SUM(D4:D204)</f>
+        <v>202</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:T5" si="0">SUM(E4:E204)</f>
+        <v>39</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <f>SUM([3]Sheet1!$C$3:$C$105)</f>
@@ -1757,10 +4495,14 @@
         <f>SUM([3]Sheet1!$J$3:$J$105)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="V6" s="4"/>
+      <c r="W6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <f>SUM([4]Sheet1!$C$3:$C$105)</f>
@@ -1790,10 +4532,18 @@
         <f>SUM([4]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N7">
+        <f>SUM(M5+N5+O5+P5+R5+S5+T5)</f>
+        <v>346</v>
+      </c>
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <f>SUM([5]Sheet1!$C$3:$C$105)</f>
@@ -1823,10 +4573,13 @@
         <f>SUM([5]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <f>SUM([6]Sheet1!$C$3:$C$105)</f>
@@ -1856,10 +4609,11 @@
         <f>SUM([6]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <f>SUM([7]Sheet1!$C$3:$C$105)</f>
@@ -1889,10 +4643,11 @@
         <f>SUM([7]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <f>SUM([8]Sheet1!$C$3:$C$105)</f>
@@ -1922,10 +4677,11 @@
         <f>SUM([8]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <f>SUM([9]Sheet1!$C$3:$C$105)</f>
@@ -1956,9 +4712,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <f>SUM([10]Sheet1!$C$3:$C$105)</f>
@@ -1989,9 +4745,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <f>SUM([11]Sheet1!$C$3:$C$105)</f>
@@ -2022,9 +4778,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <f>SUM([12]Sheet1!$C$3:$C$105)</f>
@@ -2055,9 +4811,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <f>SUM([13]Sheet1!$C$3:$C$105)</f>
@@ -2090,7 +4846,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <f>SUM([14]Sheet1!$C$3:$C$105)</f>
@@ -2123,7 +4879,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18">
         <f>SUM([15]Sheet1!$C$3:$C$105)</f>
@@ -2156,7 +4912,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <f>SUM([16]Sheet1!$C$3:$C$105)</f>
@@ -2189,7 +4945,7 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <f>SUM([17]Sheet1!$C$3:$C$105)</f>
@@ -2222,7 +4978,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <f>SUM([18]Sheet1!$C$3:$C$105)</f>
@@ -2255,7 +5011,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <f>SUM([19]Sheet1!$C$3:$C$105)</f>
@@ -2288,7 +5044,7 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <f>SUM([20]Sheet1!$C$3:$C$105)</f>
@@ -2321,7 +5077,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <f>SUM([21]Sheet1!$C$3:$C$105)</f>
@@ -2354,7 +5110,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <f>SUM([22]Sheet1!$C$3:$C$105)</f>
@@ -2387,7 +5143,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <f>SUM([23]Sheet1!$C$3:$C$105)</f>
@@ -2420,7 +5176,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <f>SUM([24]Sheet1!$C$3:$C$105)</f>
@@ -2453,7 +5209,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <f>SUM([25]Sheet1!$C$3:$C$105)</f>
@@ -2486,7 +5242,7 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <f>SUM([26]Sheet1!$C$3:$C$105)</f>
@@ -2519,7 +5275,7 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <f>SUM([27]Sheet1!$C$3:$C$105)</f>
@@ -2552,7 +5308,7 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <f>SUM([28]Sheet1!$C$3:$C$105)</f>
@@ -2585,235 +5341,2444 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <f>SUM([29]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f>SUM([29]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f>SUM([29]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>SUM([29]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>SUM([29]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>SUM([29]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f>SUM([29]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="C33">
+        <f>SUM([30]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f>SUM([30]Sheet1!$D$3:$D$105)</f>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f>SUM([30]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>SUM([30]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>SUM([30]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>SUM([30]Sheet1!$I$3:$I$105)</f>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <f>SUM([30]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="C34">
+        <f>SUM([31]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f>SUM([31]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <f>SUM([31]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>SUM([31]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>SUM([31]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f>SUM([31]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f>SUM([31]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="C35">
+        <f>SUM([32]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f>SUM([32]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <f>SUM([32]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>SUM([32]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>SUM([32]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>SUM([32]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f>SUM([32]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="C36">
+        <f>SUM([33]Sheet1!$C$3:$C$105)</f>
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <f>SUM([33]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <f>SUM([33]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f>SUM([33]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f>SUM([33]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>SUM([33]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f>SUM([33]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="C37">
+        <f>SUM([34]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f>SUM([34]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <f>SUM([34]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>SUM([34]Sheet1!$F$3:$F$105)</f>
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f>SUM([34]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f>SUM([34]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f>SUM([34]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="C38">
+        <f>SUM([35]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <f>SUM([35]Sheet1!$D$3:$D$105)</f>
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <f>SUM([35]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>SUM([35]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f>SUM([35]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f>SUM([35]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f>SUM([35]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="C39">
+        <f>SUM([36]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f>SUM([36]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <f>SUM([36]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>SUM([36]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f>SUM([36]Sheet1!$H$3:$H$105)</f>
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f>SUM([36]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f>SUM([36]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="C40">
+        <f>SUM([37]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f>SUM([37]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <f>SUM([37]Sheet1!$E$3:$E$105)</f>
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <f>SUM([37]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f>SUM([37]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f>SUM([37]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f>SUM([37]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="C41">
+        <f>SUM([38]Sheet1!$C$3:$C$105)</f>
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <f>SUM([38]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <f>SUM([38]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <f>SUM([38]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f>SUM([38]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f>SUM([38]Sheet1!$I$3:$I$105)</f>
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <f>SUM([38]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="C42">
+        <f>SUM([39]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f>SUM([39]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <f>SUM([39]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>SUM([39]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f>SUM([39]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f>SUM([39]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f>SUM([39]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="C43">
+        <f>SUM([40]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f>SUM([40]Sheet1!$D$3:$D$105)</f>
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <f>SUM([40]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>SUM([40]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f>SUM([40]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f>SUM([40]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f>SUM([40]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="C44">
+        <f>SUM([41]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f>SUM([41]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <f>SUM([41]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <f>SUM([41]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f>SUM([41]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f>SUM([41]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f>SUM([41]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="C45">
+        <f>SUM([42]Sheet1!$C$3:$C$105)</f>
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <f>SUM([42]Sheet1!$D$3:$D$105)</f>
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <f>SUM([42]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>SUM([42]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f>SUM([42]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f>SUM([42]Sheet1!$I$3:$I$105)</f>
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <f>SUM([42]Sheet1!$J$3:$J$105)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="C46">
+        <f>SUM([43]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f>SUM([43]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <f>SUM([43]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>SUM([43]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f>SUM([43]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f>SUM([43]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f>SUM([43]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="C47">
+        <f>SUM([44]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>SUM([44]Sheet1!$D$3:$D$105)</f>
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <f>SUM([44]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>SUM([44]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f>SUM([44]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f>SUM([44]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f>SUM([44]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="C48">
+        <f>SUM([45]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <f>SUM([45]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <f>SUM([45]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>SUM([45]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f>SUM([45]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f>SUM([45]Sheet1!$I$3:$I$105)</f>
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <f>SUM([45]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="C49">
+        <f>SUM([46]Sheet1!$C$3:$C$105)</f>
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <f>SUM([46]Sheet1!$D$3:$D$105)</f>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f>SUM([46]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <f>SUM([46]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f>SUM([46]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f>SUM([46]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f>SUM([46]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="C50">
+        <f>SUM([47]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <f>SUM([47]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <f>SUM([47]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>SUM([47]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f>SUM([47]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f>SUM([47]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f>SUM([47]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="C51">
+        <f>SUM([48]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <f>SUM([48]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <f>SUM([48]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <f>SUM([48]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f>SUM([48]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f>SUM([48]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f>SUM([48]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="C52">
+        <f>SUM([49]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f>SUM([49]Sheet1!$D$3:$D$105)</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>SUM([49]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f>SUM([49]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f>SUM([49]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f>SUM([49]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f>SUM([49]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="C53">
+        <f>SUM([50]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f>SUM([50]Sheet1!$D$3:$D$105)</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f>SUM([50]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>SUM([50]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f>SUM([50]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f>SUM([50]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f>SUM([50]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+      <c r="C54">
+        <f>SUM([51]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <f>SUM([51]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <f>SUM([51]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f>SUM([51]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f>SUM([51]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f>SUM([51]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f>SUM([51]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="C55">
+        <f>SUM([52]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <f>SUM([52]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <f>SUM([52]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>SUM([52]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f>SUM([52]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f>SUM([52]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f>SUM([52]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="C56">
+        <f>SUM([53]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <f>SUM([53]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <f>SUM([53]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f>SUM([53]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f>SUM([53]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f>SUM([53]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f>SUM([53]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="C57">
+        <f>SUM([54]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <f>SUM([54]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <f>SUM([54]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f>SUM([54]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f>SUM([54]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f>SUM([54]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f>SUM([54]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+      <c r="C58">
+        <f>SUM([55]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <f>SUM([55]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <f>SUM([55]Sheet1!$E$3:$E$105)</f>
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <f>SUM([55]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f>SUM([55]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f>SUM([55]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f>SUM([55]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+      <c r="C59">
+        <f>SUM([56]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <f>SUM([56]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <f>SUM([56]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <f>SUM([56]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f>SUM([56]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f>SUM([56]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f>SUM([56]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+      <c r="C60">
+        <f>SUM([57]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <f>SUM([57]Sheet1!$D$3:$D$105)</f>
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <f>SUM([57]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <f>SUM([57]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f>SUM([57]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f>SUM([57]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f>SUM([57]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+      <c r="C61">
+        <f>SUM([58]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <f>SUM([58]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <f>SUM([58]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f>SUM([58]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f>SUM([58]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f>SUM([58]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <f>SUM([58]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+      <c r="C62">
+        <f>SUM([59]Sheet1!$C$3:$C$105)</f>
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <f>SUM([59]Sheet1!$D$3:$D$105)</f>
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <f>SUM([59]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <f>SUM([59]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f>SUM([59]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f>SUM([59]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f>SUM([59]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+      <c r="C63">
+        <f>SUM([60]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <f>SUM([60]Sheet1!$D$3:$D$105)</f>
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <f>SUM([60]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f>SUM([60]Sheet1!$F$3:$F$105)</f>
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <f>SUM([60]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f>SUM([60]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <f>SUM([60]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+      <c r="C64">
+        <f>SUM([61]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <f>SUM([61]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <f>SUM([61]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f>SUM([61]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f>SUM([61]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f>SUM([61]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f>SUM([61]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="C65">
+        <f>SUM([62]Sheet1!$C$3:$C$105)</f>
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <f>SUM([62]Sheet1!$D$3:$D$105)</f>
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <f>SUM([62]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <f>SUM([62]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f>SUM([62]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f>SUM([62]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <f>SUM([62]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+      <c r="C66">
+        <f>SUM([63]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f>SUM([63]Sheet1!$D$3:$D$105)</f>
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <f>SUM([63]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f>SUM([63]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f>SUM([63]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f>SUM([63]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f>SUM([63]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+      <c r="C67">
+        <f>SUM([64]Sheet1!$C$3:$C$105)</f>
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <f>SUM([64]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <f>SUM([64]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <f>SUM([64]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f>SUM([64]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f>SUM([64]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f>SUM([64]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+      <c r="C68">
+        <f>SUM([65]Sheet1!$C$3:$C$105)</f>
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <f>SUM([65]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <f>SUM([65]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f>SUM([65]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f>SUM([65]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f>SUM([65]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f>SUM([65]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="C69">
+        <f>SUM([66]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <f>SUM([66]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <f>SUM([66]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f>SUM([66]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f>SUM([66]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f>SUM([66]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <f>SUM([66]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+      <c r="C70">
+        <f>SUM([67]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <f>SUM([67]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <f>SUM([67]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f>SUM([67]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f>SUM([67]Sheet1!$H$3:$H$105)</f>
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <f>SUM([67]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <f>SUM([67]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="C71">
+        <f>SUM([68]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <f>SUM([68]Sheet1!$D$3:$D$105)</f>
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <f>SUM([68]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f>SUM([68]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f>SUM([68]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f>SUM([68]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f>SUM([68]Sheet1!$J$3:$J$105)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+      <c r="C72">
+        <f>SUM([69]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <f>SUM([69]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <f>SUM([69]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f>SUM([69]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f>SUM([69]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f>SUM([69]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f>SUM([69]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+      <c r="C73">
+        <f>SUM([70]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <f>SUM([70]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <f>SUM([70]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f>SUM([70]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f>SUM([70]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f>SUM([70]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f>SUM([70]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+      <c r="C74">
+        <f>SUM([71]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <f>SUM([71]Sheet1!$D$3:$D$105)</f>
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <f>SUM([71]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <f>SUM([71]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f>SUM([71]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f>SUM([71]Sheet1!$I$3:$I$105)</f>
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <f>SUM([71]Sheet1!$J$3:$J$105)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="C75">
+        <f>SUM([72]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f>SUM([72]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <f>SUM([72]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f>SUM([72]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f>SUM([72]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f>SUM([72]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <f>SUM([72]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>79</v>
+      <c r="C76">
+        <f>SUM([73]Sheet1!$C$3:$C$105)</f>
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <f>SUM([73]Sheet1!$D$3:$D$105)</f>
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <f>SUM([73]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <f>SUM([73]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f>SUM([73]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f>SUM([73]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f>SUM([73]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77">
+        <f>SUM([74]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <f>SUM([74]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <f>SUM([74]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <f>SUM([74]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f>SUM([74]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f>SUM([74]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f>SUM([74]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78">
+        <f>SUM([75]Sheet1!$C$3:$C$105)</f>
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <f>SUM([75]Sheet1!$D$3:$D$105)</f>
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <f>SUM([75]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <f>SUM([75]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f>SUM([75]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f>SUM([75]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f>SUM([75]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79">
+        <f>SUM([76]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <f>SUM([76]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <f>SUM([76]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f>SUM([76]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f>SUM([76]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f>SUM([76]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <f>SUM([76]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80">
+        <f>SUM([77]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <f>SUM([77]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <f>SUM([77]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f>SUM([77]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f>SUM([77]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f>SUM([77]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <f>SUM([77]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81">
+        <f>SUM([78]Sheet1!$C$3:$C$105)</f>
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <f>SUM([78]Sheet1!$D$3:$D$105)</f>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f>SUM([78]Sheet1!$E$3:$E$105)</f>
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <f>SUM([78]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f>SUM([78]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f>SUM([78]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <f>SUM([78]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82">
+        <f>SUM([79]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <f>SUM([79]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <f>SUM([79]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f>SUM([79]Sheet1!$F$3:$F$105)</f>
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <f>SUM([79]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f>SUM([79]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <f>SUM([79]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83">
+        <f>SUM([80]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <f>SUM([80]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <f>SUM([80]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <f>SUM([80]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f>SUM([80]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f>SUM([80]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <f>SUM([80]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84">
+        <f>SUM([81]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <f>SUM([81]Sheet1!$D$3:$D$105)</f>
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <f>SUM([81]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f>SUM([81]Sheet1!$F$3:$F$105)</f>
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <f>SUM([81]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f>SUM([81]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <f>SUM([81]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85">
+        <f>SUM([82]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <f>SUM([82]Sheet1!$D$3:$D$105)</f>
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f>SUM([82]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <f>SUM([82]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f>SUM([82]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <f>SUM([82]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <f>SUM([82]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86">
+        <f>SUM([83]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <f>SUM([83]Sheet1!$D$3:$D$105)</f>
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <f>SUM([83]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <f>SUM([83]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f>SUM([83]Sheet1!$H$3:$H$105)</f>
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <f>SUM([83]Sheet1!$I$3:$I$105)</f>
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <f>SUM([83]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87">
+        <f>SUM([84]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <f>SUM([84]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <f>SUM([84]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f>SUM([84]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f>SUM([84]Sheet1!$H$3:$H$105)</f>
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <f>SUM([84]Sheet1!$I$3:$I$105)</f>
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <f>SUM([84]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88">
+        <f>SUM([85]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <f>SUM([85]Sheet1!$D$3:$D$105)</f>
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <f>SUM([85]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <f>SUM([85]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f>SUM([85]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f>SUM([85]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <f>SUM([85]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89">
+        <f>SUM([86]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <f>SUM([86]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <f>SUM([86]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <f>SUM([86]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f>SUM([86]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <f>SUM([86]Sheet1!$I$3:$I$105)</f>
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <f>SUM([86]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90">
+        <f>SUM([87]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <f>SUM([87]Sheet1!$D$3:$D$105)</f>
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <f>SUM([87]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <f>SUM([87]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f>SUM([87]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <f>SUM([87]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <f>SUM([87]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91">
+        <f>SUM([88]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <f>SUM([88]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <f>SUM([88]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <f>SUM([88]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f>SUM([88]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <f>SUM([88]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <f>SUM([88]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92">
+        <f>SUM([89]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <f>SUM([89]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <f>SUM([89]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <f>SUM([89]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f>SUM([89]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <f>SUM([89]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <f>SUM([89]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93">
+        <f>SUM([90]Sheet1!$C$3:$C$105)</f>
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <f>SUM([90]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <f>SUM([90]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <f>SUM([90]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f>SUM([90]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <f>SUM([90]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <f>SUM([90]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94">
+        <f>SUM([91]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <f>SUM([91]Sheet1!$D$3:$D$105)</f>
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <f>SUM([91]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <f>SUM([91]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f>SUM([91]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <f>SUM([91]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <f>SUM([91]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95">
+        <f>SUM([92]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <f>SUM([92]Sheet1!$D$3:$D$105)</f>
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <f>SUM([92]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <f>SUM([92]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <f>SUM([92]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <f>SUM([92]Sheet1!$I$3:$I$105)</f>
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <f>SUM([92]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96">
+        <f>SUM([93]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <f>SUM([93]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <f>SUM([93]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <f>SUM([93]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f>SUM([93]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <f>SUM([93]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <f>SUM([93]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97">
+        <f>SUM([94]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <f>SUM([94]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <f>SUM([94]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <f>SUM([94]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f>SUM([94]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <f>SUM([94]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <f>SUM([94]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98">
+        <f>SUM([95]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <f>SUM([95]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <f>SUM([95]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <f>SUM([95]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <f>SUM([95]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <f>SUM([95]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <f>SUM([95]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99">
+        <f>SUM([96]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <f>SUM([96]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <f>SUM([96]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <f>SUM([96]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f>SUM([96]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <f>SUM([96]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <f>SUM([96]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100">
+        <f>SUM([97]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <f>SUM([97]Sheet1!$D$3:$D$105)</f>
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <f>SUM([97]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <f>SUM([97]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f>SUM([97]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <f>SUM([97]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <f>SUM([97]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101">
+        <f>SUM([98]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <f>SUM([98]Sheet1!$D$3:$D$105)</f>
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <f>SUM([98]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <f>SUM([98]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <f>SUM([98]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <f>SUM([98]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <f>SUM([98]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102">
+        <f>SUM([99]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <f>SUM([99]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <f>SUM([99]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <f>SUM([99]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <f>SUM([99]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <f>SUM([99]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <f>SUM([99]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103">
+        <f>SUM([100]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <f>SUM([100]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <f>SUM([100]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <f>SUM([100]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <f>SUM([100]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <f>SUM([100]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <f>SUM([100]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104">
+        <f>SUM([101]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <f>SUM([101]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <f>SUM([101]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <f>SUM([101]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <f>SUM([101]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <f>SUM([101]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <f>SUM([101]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="M3:T3"/>
+    <mergeCell ref="V3:W3"/>
   </mergeCells>
+  <conditionalFormatting sqref="C4:F104">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:J104">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/zzzzz_potatomission.xlsx
+++ b/zzzzz_potatomission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game\TF2\MvM\Potato.tf\Mission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFAE4F9-1515-44E4-9638-69F6DF84AAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDE2460-38A2-40F7-9DE7-7648CAC97F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9108C7C3-1D02-4681-ACF3-A5CC7178FD3B}"/>
   </bookViews>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
   <si>
     <t>Difficulty</t>
   </si>
@@ -474,10 +474,10 @@
     <t>Counts Cell by Color</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Rev</t>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>equal or greater than</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -541,6 +541,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4275,18 +4276,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF71BD33-9B99-4B1F-B460-F32774AE22E8}">
-  <dimension ref="B2:W104"/>
+  <dimension ref="B2:X104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N90" sqref="N90"/>
+      <selection activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="23" max="23" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4301,7 +4303,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -4341,7 +4343,7 @@
       </c>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -4394,11 +4396,8 @@
       <c r="T4" t="s">
         <v>5</v>
       </c>
-      <c r="V4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -4459,11 +4458,14 @@
         <v>5</v>
       </c>
       <c r="V5" s="5"/>
-      <c r="W5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W5" t="s">
+        <v>111</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -4496,11 +4498,14 @@
         <v>1</v>
       </c>
       <c r="V6" s="4"/>
-      <c r="W6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W6" t="s">
+        <v>111</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -4540,8 +4545,14 @@
         <v>346</v>
       </c>
       <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W7" t="s">
+        <v>112</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -4573,11 +4584,8 @@
         <f>SUM([5]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-      <c r="V8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -4609,9 +4617,9 @@
         <f>SUM([6]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="5"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V9" s="6"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -4643,9 +4651,9 @@
         <f>SUM([7]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-      <c r="V10" s="4"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V10" s="6"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -4677,9 +4685,9 @@
         <f>SUM([8]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-      <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V11" s="6"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -4712,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -4745,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -4778,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -4811,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -7757,6 +7765,16 @@
   </mergeCells>
   <conditionalFormatting sqref="C4:F104">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7768,7 +7786,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:J104">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7778,6 +7796,16 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/zzzzz_potatomission.xlsx
+++ b/zzzzz_potatomission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game\TF2\MvM\Potato.tf\Mission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDE2460-38A2-40F7-9DE7-7648CAC97F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BF078B-E803-4FCE-B316-95EA84D91AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9108C7C3-1D02-4681-ACF3-A5CC7178FD3B}"/>
   </bookViews>

--- a/zzzzz_potatomission.xlsx
+++ b/zzzzz_potatomission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game\TF2\MvM\Potato.tf\Mission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BF078B-E803-4FCE-B316-95EA84D91AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E954105-E58D-446B-963D-3622C0C2C786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9108C7C3-1D02-4681-ACF3-A5CC7178FD3B}"/>
   </bookViews>
@@ -532,16 +532,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2957,7 +2955,7 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="D3">
+          <cell r="F3">
             <v>1</v>
           </cell>
         </row>
@@ -4278,8 +4276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF71BD33-9B99-4B1F-B460-F32774AE22E8}">
   <dimension ref="B2:X104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K99" sqref="K99"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4289,19 +4287,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -4328,20 +4323,20 @@
       <c r="J3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="V3" s="1" t="s">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="V3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="W3" s="1"/>
+      <c r="W3" s="4"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -4435,7 +4430,7 @@
       </c>
       <c r="N5">
         <f>SUM(D4:D204)</f>
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O5">
         <f t="shared" ref="O5:T5" si="0">SUM(E4:E204)</f>
@@ -4443,7 +4438,7 @@
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
@@ -4457,7 +4452,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V5" s="5"/>
+      <c r="V5" s="3"/>
       <c r="W5" t="s">
         <v>111</v>
       </c>
@@ -4497,7 +4492,7 @@
         <f>SUM([3]Sheet1!$J$3:$J$105)</f>
         <v>1</v>
       </c>
-      <c r="V6" s="4"/>
+      <c r="V6" s="2"/>
       <c r="W6" t="s">
         <v>111</v>
       </c>
@@ -4544,7 +4539,7 @@
         <f>SUM(M5+N5+O5+P5+R5+S5+T5)</f>
         <v>346</v>
       </c>
-      <c r="V7" s="3"/>
+      <c r="V7" s="1"/>
       <c r="W7" t="s">
         <v>112</v>
       </c>
@@ -4617,7 +4612,6 @@
         <f>SUM([6]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="6"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -4651,7 +4645,6 @@
         <f>SUM([7]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-      <c r="V10" s="6"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -4685,7 +4678,6 @@
         <f>SUM([8]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-      <c r="V11" s="6"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -6776,7 +6768,7 @@
       </c>
       <c r="D75">
         <f>SUM([72]Sheet1!$D$3:$D$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <f>SUM([72]Sheet1!$E$3:$E$105)</f>
@@ -6784,7 +6776,7 @@
       </c>
       <c r="F75">
         <f>SUM([72]Sheet1!$F$3:$F$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
         <f>SUM([72]Sheet1!$H$3:$H$105)</f>

--- a/zzzzz_potatomission.xlsx
+++ b/zzzzz_potatomission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game\TF2\MvM\Potato.tf\Mission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3A9127-C098-4324-A9AB-9D402368A970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6F26DC-F379-462A-B80E-2018A1493B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9108C7C3-1D02-4681-ACF3-A5CC7178FD3B}"/>
   </bookViews>
@@ -4274,31 +4274,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF71BD33-9B99-4B1F-B460-F32774AE22E8}">
-  <dimension ref="B2:X104"/>
+  <dimension ref="B2:AE104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="23" max="23" width="17.69921875" customWidth="1"/>
+    <col min="23" max="23" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -4323,22 +4324,18 @@
       <c r="J3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="V3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="W3" s="4"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+    </row>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -4370,29 +4367,29 @@
         <f>SUM([1]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-      <c r="M4" t="s">
+      <c r="X4" t="s">
         <v>3</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Y4" t="s">
         <v>4</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Z4" t="s">
         <v>5</v>
       </c>
-      <c r="P4" t="s">
+      <c r="AA4" t="s">
         <v>6</v>
       </c>
-      <c r="R4" t="s">
+      <c r="AC4" t="s">
         <v>3</v>
       </c>
-      <c r="S4" t="s">
+      <c r="AD4" t="s">
         <v>4</v>
       </c>
-      <c r="T4" t="s">
+      <c r="AE4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -4424,43 +4421,36 @@
         <f>SUM([2]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="X5">
         <f>SUM(C4:C204)</f>
         <v>74</v>
       </c>
-      <c r="N5">
+      <c r="Y5">
         <f>SUM(D4:D204)</f>
         <v>201</v>
       </c>
-      <c r="O5">
-        <f t="shared" ref="O5:T5" si="0">SUM(E4:E204)</f>
+      <c r="Z5">
+        <f>SUM(E4:E204)</f>
         <v>39</v>
       </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
+      <c r="AA5">
+        <f>SUM(F4:F204)</f>
         <v>7</v>
       </c>
-      <c r="R5">
-        <f t="shared" si="0"/>
+      <c r="AC5">
+        <f>SUM(H4:H204)</f>
         <v>5</v>
       </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
+      <c r="AD5">
+        <f>SUM(I4:I204)</f>
         <v>15</v>
       </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
+      <c r="AE5">
+        <f>SUM(J4:J204)</f>
         <v>5</v>
       </c>
-      <c r="V5" s="3"/>
-      <c r="W5" t="s">
-        <v>111</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -4492,15 +4482,8 @@
         <f>SUM([3]Sheet1!$J$3:$J$105)</f>
         <v>1</v>
       </c>
-      <c r="V6" s="2"/>
-      <c r="W6" t="s">
-        <v>111</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -4532,22 +4515,15 @@
         <f>SUM([4]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-      <c r="M7" t="s">
+      <c r="X7" t="s">
         <v>108</v>
       </c>
-      <c r="N7">
-        <f>SUM(M5+N5+O5+P5+R5+S5+T5)</f>
+      <c r="Y7">
+        <f>SUM(X5+Y5+Z5+AA5+AC5+AD5+AE5)</f>
         <v>346</v>
       </c>
-      <c r="V7" s="1"/>
-      <c r="W7" t="s">
-        <v>112</v>
-      </c>
-      <c r="X7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -4580,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -4612,8 +4588,12 @@
         <f>SUM([6]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -4646,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -4678,8 +4658,15 @@
         <f>SUM([8]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X11" s="3"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -4711,8 +4698,15 @@
         <f>SUM([9]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X12" s="2"/>
+      <c r="Y12" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -4744,8 +4738,15 @@
         <f>SUM([10]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X13" s="1"/>
+      <c r="Y13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -4778,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -4811,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -7750,10 +7751,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="M3:T3"/>
-    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:AE3"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:F104">
     <cfRule type="colorScale" priority="2">
@@ -7778,6 +7779,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:J104">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -7788,16 +7799,6 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-        <color theme="5" tint="0.59999389629810485"/>
-        <color theme="7" tint="0.59999389629810485"/>
-        <color theme="9" tint="0.59999389629810485"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/zzzzz_potatomission.xlsx
+++ b/zzzzz_potatomission.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game\TF2\MvM\Potato.tf\Mission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6F26DC-F379-462A-B80E-2018A1493B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABD3607-81A2-40B0-9916-4E44492E5A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9108C7C3-1D02-4681-ACF3-A5CC7178FD3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
@@ -117,6 +117,14 @@
     <externalReference r:id="rId100"/>
     <externalReference r:id="rId101"/>
     <externalReference r:id="rId102"/>
+    <externalReference r:id="rId103"/>
+    <externalReference r:id="rId104"/>
+    <externalReference r:id="rId105"/>
+    <externalReference r:id="rId106"/>
+    <externalReference r:id="rId107"/>
+    <externalReference r:id="rId108"/>
+    <externalReference r:id="rId109"/>
+    <externalReference r:id="rId110"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -139,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="122">
   <si>
     <t>Difficulty</t>
   </si>
@@ -478,6 +486,33 @@
   </si>
   <si>
     <t>equal or greater than</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Reverse</t>
+  </si>
+  <si>
+    <t>Scallop</t>
+  </si>
+  <si>
+    <t>Scrapyard</t>
+  </si>
+  <si>
+    <t>Robotfactory</t>
+  </si>
+  <si>
+    <t>Watermine</t>
+  </si>
+  <si>
+    <t>Bogland</t>
+  </si>
+  <si>
+    <t>Flowerfield</t>
+  </si>
+  <si>
+    <t>Mansion</t>
   </si>
 </sst>
 </file>
@@ -602,103 +637,6 @@
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="E3">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink100.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink101.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
@@ -723,6 +661,369 @@
           </cell>
         </row>
         <row r="6">
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink100.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink101.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink102.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink103.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink104.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink105.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink106.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink107.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink108.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="E3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
           <cell r="D6">
             <v>1</v>
           </cell>
@@ -758,7 +1059,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -777,7 +1078,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -814,7 +1115,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -833,7 +1134,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -880,7 +1181,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -912,7 +1213,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -944,19 +1245,19 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="I3">
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
             <v>1</v>
           </cell>
         </row>
@@ -971,6 +1272,53 @@
           </cell>
         </row>
         <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="I3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
           <cell r="E6">
             <v>1</v>
           </cell>
@@ -986,7 +1334,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1003,7 +1351,39 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="D4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
             <v>1</v>
           </cell>
         </row>
@@ -1013,6 +1393,81 @@
           </cell>
         </row>
         <row r="6">
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
           <cell r="D6">
             <v>1</v>
           </cell>
@@ -1022,13 +1477,18 @@
             <v>1</v>
           </cell>
         </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+        <row r="8">
+          <cell r="E8">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1045,7 +1505,96 @@
           </cell>
         </row>
         <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
           <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
             <v>1</v>
           </cell>
         </row>
@@ -1054,13 +1603,182 @@
             <v>1</v>
           </cell>
         </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="I3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1077,7 +1795,7 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="C4">
+          <cell r="D4">
             <v>1</v>
           </cell>
         </row>
@@ -1086,6 +1804,556 @@
             <v>1</v>
           </cell>
         </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="F3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink38.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="H4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink39.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink40.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink41.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink42.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink43.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink44.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="J9">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink45.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink46.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink47.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink48.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+        </row>
         <row r="6">
           <cell r="E6">
             <v>1</v>
@@ -1097,7 +2365,93 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink49.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="I3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink50.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink51.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1113,7 +2467,23 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink52.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink53.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1135,7 +2505,502 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink54.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink55.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink56.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink57.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink58.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink59.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink60.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink61.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink62.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink63.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink64.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink65.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink66.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink67.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1171,13 +3036,18 @@
             <v>1</v>
           </cell>
         </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+        <row r="8">
+          <cell r="E8">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink68.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1194,7 +3064,7 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="D4">
+          <cell r="C4">
             <v>1</v>
           </cell>
         </row>
@@ -1203,6 +3073,84 @@
             <v>1</v>
           </cell>
         </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink69.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink70.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
         <row r="6">
           <cell r="E6">
             <v>1</v>
@@ -1214,24 +3162,24 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
+<file path=xl/externalLinks/externalLink71.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="H3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="H4">
             <v>1</v>
           </cell>
         </row>
@@ -1246,7 +3194,7 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="D7">
+          <cell r="C7">
             <v>1</v>
           </cell>
         </row>
@@ -1255,18 +3203,82 @@
             <v>1</v>
           </cell>
         </row>
-        <row r="9">
-          <cell r="E9">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink72.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink73.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink74.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1292,13 +3304,37 @@
             <v>1</v>
           </cell>
         </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+        <row r="6">
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink75.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink76.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1311,6 +3347,592 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink77.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="I3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="J11">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink78.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="F3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink79.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink80.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink81.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink82.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink83.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink84.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink85.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="F3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink86.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink87.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="I8">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink88.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="E3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink89.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="H3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="I11">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink90.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="H3">
             <v>1</v>
           </cell>
         </row>
@@ -1324,57 +3946,274 @@
             <v>1</v>
           </cell>
         </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink91.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink92.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink93.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink94.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink95.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink96.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink97.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
         <row r="6">
           <cell r="D6">
             <v>1</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="F7">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink98.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
             <v>1</v>
           </cell>
         </row>
@@ -1384,120 +4223,7 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="I3">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
+          <cell r="I5">
             <v>1</v>
           </cell>
         </row>
@@ -1507,2445 +4233,7 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="E7">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="F3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
           <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="H4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink38.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink39.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink40.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink41.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink42.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="J9">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink43.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink44.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink45.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink46.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink47.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink48.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink49.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="I3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink50.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink51.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink52.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink53.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink54.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink55.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink56.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink57.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink58.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink59.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink60.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink61.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink62.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink63.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink64.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink65.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink66.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink67.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="H3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="H4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink68.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink69.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink70.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink71.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="I3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="J11">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink72.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="F3">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink73.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink74.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink75.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink76.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink77.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink78.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink79.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="F3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink80.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink81.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink82.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="E3">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink83.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="H3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="I11">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink84.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="H3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink85.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink86.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink87.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink88.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink89.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink90.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink91.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink92.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink93.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink94.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink95.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink96.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink97.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink98.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
             <v>1</v>
           </cell>
         </row>
@@ -4274,16 +4562,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF71BD33-9B99-4B1F-B460-F32774AE22E8}">
-  <dimension ref="B2:AE104"/>
+  <dimension ref="B2:AE111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="20" max="20" width="22.5" customWidth="1"/>
     <col min="23" max="23" width="8.796875" customWidth="1"/>
+    <col min="25" max="25" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:31" x14ac:dyDescent="0.25">
@@ -4298,6 +4588,16 @@
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
+      <c r="X2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -4325,13 +4625,14 @@
         <v>5</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
+      <c r="AC3" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
     </row>
@@ -4367,6 +4668,10 @@
         <f>SUM([1]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
+      <c r="S4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="T4" s="4"/>
       <c r="X4" t="s">
         <v>3</v>
       </c>
@@ -4399,7 +4704,7 @@
       </c>
       <c r="D5">
         <f>SUM([2]Sheet1!$D$3:$D$105)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <f>SUM([2]Sheet1!$E$3:$E$105)</f>
@@ -4423,15 +4728,15 @@
       </c>
       <c r="X5">
         <f>SUM(C4:C204)</f>
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Y5">
         <f>SUM(D4:D204)</f>
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="Z5">
         <f>SUM(E4:E204)</f>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AA5">
         <f>SUM(F4:F204)</f>
@@ -4443,7 +4748,7 @@
       </c>
       <c r="AD5">
         <f>SUM(I4:I204)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE5">
         <f>SUM(J4:J204)</f>
@@ -4482,6 +4787,13 @@
         <f>SUM([3]Sheet1!$J$3:$J$105)</f>
         <v>1</v>
       </c>
+      <c r="S6" s="3"/>
+      <c r="T6" t="s">
+        <v>111</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -4515,12 +4827,19 @@
         <f>SUM([4]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
+      <c r="S7" s="2"/>
+      <c r="T7" t="s">
+        <v>111</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
       <c r="X7" t="s">
         <v>108</v>
       </c>
       <c r="Y7">
         <f>SUM(X5+Y5+Z5+AA5+AC5+AD5+AE5)</f>
-        <v>346</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.25">
@@ -4555,6 +4874,13 @@
         <f>SUM([5]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
+      <c r="S8" s="1"/>
+      <c r="T8" t="s">
+        <v>112</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -4588,18 +4914,14 @@
         <f>SUM([6]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="C10">
         <f>SUM([7]Sheet1!$C$3:$C$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <f>SUM([7]Sheet1!$D$3:$D$105)</f>
@@ -4628,15 +4950,15 @@
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <f>SUM([8]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f>SUM([8]Sheet1!$D$3:$D$105)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <f>SUM([8]Sheet1!$E$3:$E$105)</f>
@@ -4658,21 +4980,14 @@
         <f>SUM([8]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-      <c r="X11" s="3"/>
-      <c r="Y11" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <f>SUM([9]Sheet1!$C$3:$C$105)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <f>SUM([9]Sheet1!$D$3:$D$105)</f>
@@ -4698,25 +5013,18 @@
         <f>SUM([9]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-      <c r="X12" s="2"/>
-      <c r="Y12" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <f>SUM([10]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <f>SUM([10]Sheet1!$D$3:$D$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <f>SUM([10]Sheet1!$E$3:$E$105)</f>
@@ -4738,17 +5046,10 @@
         <f>SUM([10]Sheet1!$J$3:$J$105)</f>
         <v>0</v>
       </c>
-      <c r="X13" s="1"/>
-      <c r="Y13" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z13">
-        <v>2</v>
-      </c>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <f>SUM([11]Sheet1!$C$3:$C$105)</f>
@@ -4756,7 +5057,7 @@
       </c>
       <c r="D14">
         <f>SUM([11]Sheet1!$D$3:$D$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <f>SUM([11]Sheet1!$E$3:$E$105)</f>
@@ -4781,19 +5082,19 @@
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <f>SUM([12]Sheet1!$C$3:$C$105)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <f>SUM([12]Sheet1!$D$3:$D$105)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <f>SUM([12]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <f>SUM([12]Sheet1!$F$3:$F$105)</f>
@@ -4814,15 +5115,15 @@
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <f>SUM([13]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <f>SUM([13]Sheet1!$D$3:$D$105)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <f>SUM([13]Sheet1!$E$3:$E$105)</f>
@@ -4847,7 +5148,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <f>SUM([14]Sheet1!$C$3:$C$105)</f>
@@ -4855,7 +5156,7 @@
       </c>
       <c r="D17">
         <f>SUM([14]Sheet1!$D$3:$D$105)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <f>SUM([14]Sheet1!$E$3:$E$105)</f>
@@ -4871,16 +5172,16 @@
       </c>
       <c r="I17">
         <f>SUM([14]Sheet1!$I$3:$I$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <f>SUM([14]Sheet1!$J$3:$J$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <f>SUM([15]Sheet1!$C$3:$C$105)</f>
@@ -4888,7 +5189,7 @@
       </c>
       <c r="D18">
         <f>SUM([15]Sheet1!$D$3:$D$105)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <f>SUM([15]Sheet1!$E$3:$E$105)</f>
@@ -4908,20 +5209,20 @@
       </c>
       <c r="J18">
         <f>SUM([15]Sheet1!$J$3:$J$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C19">
         <f>SUM([16]Sheet1!$C$3:$C$105)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <f>SUM([16]Sheet1!$D$3:$D$105)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <f>SUM([16]Sheet1!$E$3:$E$105)</f>
@@ -4937,7 +5238,7 @@
       </c>
       <c r="I19">
         <f>SUM([16]Sheet1!$I$3:$I$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <f>SUM([16]Sheet1!$J$3:$J$105)</f>
@@ -4946,15 +5247,15 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <f>SUM([17]Sheet1!$C$3:$C$105)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <f>SUM([17]Sheet1!$D$3:$D$105)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <f>SUM([17]Sheet1!$E$3:$E$105)</f>
@@ -4962,7 +5263,7 @@
       </c>
       <c r="F20">
         <f>SUM([17]Sheet1!$F$3:$F$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <f>SUM([17]Sheet1!$H$3:$H$105)</f>
@@ -4979,23 +5280,23 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <f>SUM([18]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <f>SUM([18]Sheet1!$D$3:$D$105)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <f>SUM([18]Sheet1!$E$3:$E$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <f>SUM([18]Sheet1!$F$3:$F$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <f>SUM([18]Sheet1!$H$3:$H$105)</f>
@@ -5012,7 +5313,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <f>SUM([19]Sheet1!$C$3:$C$105)</f>
@@ -5024,7 +5325,7 @@
       </c>
       <c r="E22">
         <f>SUM([19]Sheet1!$E$3:$E$105)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <f>SUM([19]Sheet1!$F$3:$F$105)</f>
@@ -5036,7 +5337,7 @@
       </c>
       <c r="I22">
         <f>SUM([19]Sheet1!$I$3:$I$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <f>SUM([19]Sheet1!$J$3:$J$105)</f>
@@ -5045,19 +5346,19 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <f>SUM([20]Sheet1!$C$3:$C$105)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <f>SUM([20]Sheet1!$D$3:$D$105)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <f>SUM([20]Sheet1!$E$3:$E$105)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <f>SUM([20]Sheet1!$F$3:$F$105)</f>
@@ -5069,7 +5370,7 @@
       </c>
       <c r="I23">
         <f>SUM([20]Sheet1!$I$3:$I$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <f>SUM([20]Sheet1!$J$3:$J$105)</f>
@@ -5078,7 +5379,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <f>SUM([21]Sheet1!$C$3:$C$105)</f>
@@ -5086,7 +5387,7 @@
       </c>
       <c r="D24">
         <f>SUM([21]Sheet1!$D$3:$D$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <f>SUM([21]Sheet1!$E$3:$E$105)</f>
@@ -5111,19 +5412,19 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <f>SUM([22]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <f>SUM([22]Sheet1!$D$3:$D$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <f>SUM([22]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <f>SUM([22]Sheet1!$F$3:$F$105)</f>
@@ -5177,15 +5478,15 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <f>SUM([24]Sheet1!$C$3:$C$105)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <f>SUM([24]Sheet1!$D$3:$D$105)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <f>SUM([24]Sheet1!$E$3:$E$105)</f>
@@ -5210,11 +5511,11 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <f>SUM([25]Sheet1!$C$3:$C$105)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <f>SUM([25]Sheet1!$D$3:$D$105)</f>
@@ -5243,19 +5544,19 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <f>SUM([26]Sheet1!$C$3:$C$105)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <f>SUM([26]Sheet1!$D$3:$D$105)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <f>SUM([26]Sheet1!$E$3:$E$105)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <f>SUM([26]Sheet1!$F$3:$F$105)</f>
@@ -5276,19 +5577,19 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <f>SUM([27]Sheet1!$C$3:$C$105)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <f>SUM([27]Sheet1!$D$3:$D$105)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <f>SUM([27]Sheet1!$E$3:$E$105)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <f>SUM([27]Sheet1!$F$3:$F$105)</f>
@@ -5309,23 +5610,23 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <f>SUM([28]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <f>SUM([28]Sheet1!$D$3:$D$105)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <f>SUM([28]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <f>SUM([28]Sheet1!$F$3:$F$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <f>SUM([28]Sheet1!$H$3:$H$105)</f>
@@ -5333,7 +5634,7 @@
       </c>
       <c r="I31">
         <f>SUM([28]Sheet1!$I$3:$I$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <f>SUM([28]Sheet1!$J$3:$J$105)</f>
@@ -5342,7 +5643,7 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <f>SUM([29]Sheet1!$C$3:$C$105)</f>
@@ -5350,7 +5651,7 @@
       </c>
       <c r="D32">
         <f>SUM([29]Sheet1!$D$3:$D$105)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32">
         <f>SUM([29]Sheet1!$E$3:$E$105)</f>
@@ -5358,7 +5659,7 @@
       </c>
       <c r="F32">
         <f>SUM([29]Sheet1!$F$3:$F$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <f>SUM([29]Sheet1!$H$3:$H$105)</f>
@@ -5366,7 +5667,7 @@
       </c>
       <c r="I32">
         <f>SUM([29]Sheet1!$I$3:$I$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <f>SUM([29]Sheet1!$J$3:$J$105)</f>
@@ -5375,7 +5676,7 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <f>SUM([30]Sheet1!$C$3:$C$105)</f>
@@ -5383,7 +5684,7 @@
       </c>
       <c r="D33">
         <f>SUM([30]Sheet1!$D$3:$D$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <f>SUM([30]Sheet1!$E$3:$E$105)</f>
@@ -5399,7 +5700,7 @@
       </c>
       <c r="I33">
         <f>SUM([30]Sheet1!$I$3:$I$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <f>SUM([30]Sheet1!$J$3:$J$105)</f>
@@ -5408,7 +5709,7 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <f>SUM([31]Sheet1!$C$3:$C$105)</f>
@@ -5416,7 +5717,7 @@
       </c>
       <c r="D34">
         <f>SUM([31]Sheet1!$D$3:$D$105)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <f>SUM([31]Sheet1!$E$3:$E$105)</f>
@@ -5432,7 +5733,7 @@
       </c>
       <c r="I34">
         <f>SUM([31]Sheet1!$I$3:$I$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <f>SUM([31]Sheet1!$J$3:$J$105)</f>
@@ -5441,11 +5742,11 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <f>SUM([32]Sheet1!$C$3:$C$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <f>SUM([32]Sheet1!$D$3:$D$105)</f>
@@ -5474,19 +5775,19 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="C36">
         <f>SUM([33]Sheet1!$C$3:$C$105)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <f>SUM([33]Sheet1!$D$3:$D$105)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <f>SUM([33]Sheet1!$E$3:$E$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <f>SUM([33]Sheet1!$F$3:$F$105)</f>
@@ -5507,11 +5808,11 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <f>SUM([34]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <f>SUM([34]Sheet1!$D$3:$D$105)</f>
@@ -5523,7 +5824,7 @@
       </c>
       <c r="F37">
         <f>SUM([34]Sheet1!$F$3:$F$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <f>SUM([34]Sheet1!$H$3:$H$105)</f>
@@ -5540,19 +5841,19 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <f>SUM([35]Sheet1!$C$3:$C$105)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <f>SUM([35]Sheet1!$D$3:$D$105)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <f>SUM([35]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <f>SUM([35]Sheet1!$F$3:$F$105)</f>
@@ -5573,11 +5874,11 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <f>SUM([36]Sheet1!$C$3:$C$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <f>SUM([36]Sheet1!$D$3:$D$105)</f>
@@ -5589,11 +5890,11 @@
       </c>
       <c r="F39">
         <f>SUM([36]Sheet1!$F$3:$F$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <f>SUM([36]Sheet1!$H$3:$H$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <f>SUM([36]Sheet1!$I$3:$I$105)</f>
@@ -5606,19 +5907,19 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <f>SUM([37]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <f>SUM([37]Sheet1!$D$3:$D$105)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <f>SUM([37]Sheet1!$E$3:$E$105)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <f>SUM([37]Sheet1!$F$3:$F$105)</f>
@@ -5639,11 +5940,11 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41">
         <f>SUM([38]Sheet1!$C$3:$C$105)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <f>SUM([38]Sheet1!$D$3:$D$105)</f>
@@ -5651,7 +5952,7 @@
       </c>
       <c r="E41">
         <f>SUM([38]Sheet1!$E$3:$E$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <f>SUM([38]Sheet1!$F$3:$F$105)</f>
@@ -5659,11 +5960,11 @@
       </c>
       <c r="H41">
         <f>SUM([38]Sheet1!$H$3:$H$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <f>SUM([38]Sheet1!$I$3:$I$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <f>SUM([38]Sheet1!$J$3:$J$105)</f>
@@ -5672,7 +5973,7 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <f>SUM([39]Sheet1!$C$3:$C$105)</f>
@@ -5684,7 +5985,7 @@
       </c>
       <c r="E42">
         <f>SUM([39]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <f>SUM([39]Sheet1!$F$3:$F$105)</f>
@@ -5705,11 +6006,11 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43">
         <f>SUM([40]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43">
         <f>SUM([40]Sheet1!$D$3:$D$105)</f>
@@ -5717,7 +6018,7 @@
       </c>
       <c r="E43">
         <f>SUM([40]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <f>SUM([40]Sheet1!$F$3:$F$105)</f>
@@ -5729,7 +6030,7 @@
       </c>
       <c r="I43">
         <f>SUM([40]Sheet1!$I$3:$I$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <f>SUM([40]Sheet1!$J$3:$J$105)</f>
@@ -5738,7 +6039,7 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44">
         <f>SUM([41]Sheet1!$C$3:$C$105)</f>
@@ -5750,7 +6051,7 @@
       </c>
       <c r="E44">
         <f>SUM([41]Sheet1!$E$3:$E$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <f>SUM([41]Sheet1!$F$3:$F$105)</f>
@@ -5771,11 +6072,11 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45">
         <f>SUM([42]Sheet1!$C$3:$C$105)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <f>SUM([42]Sheet1!$D$3:$D$105)</f>
@@ -5795,16 +6096,16 @@
       </c>
       <c r="I45">
         <f>SUM([42]Sheet1!$I$3:$I$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <f>SUM([42]Sheet1!$J$3:$J$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46">
         <f>SUM([43]Sheet1!$C$3:$C$105)</f>
@@ -5816,7 +6117,7 @@
       </c>
       <c r="E46">
         <f>SUM([43]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <f>SUM([43]Sheet1!$F$3:$F$105)</f>
@@ -5837,15 +6138,15 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47">
         <f>SUM([44]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <f>SUM([44]Sheet1!$D$3:$D$105)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <f>SUM([44]Sheet1!$E$3:$E$105)</f>
@@ -5861,16 +6162,16 @@
       </c>
       <c r="I47">
         <f>SUM([44]Sheet1!$I$3:$I$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <f>SUM([44]Sheet1!$J$3:$J$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48">
         <f>SUM([45]Sheet1!$C$3:$C$105)</f>
@@ -5878,7 +6179,7 @@
       </c>
       <c r="D48">
         <f>SUM([45]Sheet1!$D$3:$D$105)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <f>SUM([45]Sheet1!$E$3:$E$105)</f>
@@ -5894,7 +6195,7 @@
       </c>
       <c r="I48">
         <f>SUM([45]Sheet1!$I$3:$I$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <f>SUM([45]Sheet1!$J$3:$J$105)</f>
@@ -5903,19 +6204,19 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49">
         <f>SUM([46]Sheet1!$C$3:$C$105)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <f>SUM([46]Sheet1!$D$3:$D$105)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E49">
         <f>SUM([46]Sheet1!$E$3:$E$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <f>SUM([46]Sheet1!$F$3:$F$105)</f>
@@ -5936,7 +6237,7 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50">
         <f>SUM([47]Sheet1!$C$3:$C$105)</f>
@@ -5944,7 +6245,7 @@
       </c>
       <c r="D50">
         <f>SUM([47]Sheet1!$D$3:$D$105)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <f>SUM([47]Sheet1!$E$3:$E$105)</f>
@@ -5960,7 +6261,7 @@
       </c>
       <c r="I50">
         <f>SUM([47]Sheet1!$I$3:$I$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <f>SUM([47]Sheet1!$J$3:$J$105)</f>
@@ -5969,15 +6270,15 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51">
         <f>SUM([48]Sheet1!$C$3:$C$105)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51">
         <f>SUM([48]Sheet1!$D$3:$D$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <f>SUM([48]Sheet1!$E$3:$E$105)</f>
@@ -6002,7 +6303,7 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52">
         <f>SUM([49]Sheet1!$C$3:$C$105)</f>
@@ -6010,7 +6311,7 @@
       </c>
       <c r="D52">
         <f>SUM([49]Sheet1!$D$3:$D$105)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E52">
         <f>SUM([49]Sheet1!$E$3:$E$105)</f>
@@ -6035,19 +6336,19 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53">
         <f>SUM([50]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <f>SUM([50]Sheet1!$D$3:$D$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <f>SUM([50]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <f>SUM([50]Sheet1!$F$3:$F$105)</f>
@@ -6068,15 +6369,15 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C54">
         <f>SUM([51]Sheet1!$C$3:$C$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <f>SUM([51]Sheet1!$D$3:$D$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <f>SUM([51]Sheet1!$E$3:$E$105)</f>
@@ -6101,7 +6402,7 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55">
         <f>SUM([52]Sheet1!$C$3:$C$105)</f>
@@ -6109,7 +6410,7 @@
       </c>
       <c r="D55">
         <f>SUM([52]Sheet1!$D$3:$D$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <f>SUM([52]Sheet1!$E$3:$E$105)</f>
@@ -6134,11 +6435,11 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="C56">
         <f>SUM([53]Sheet1!$C$3:$C$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <f>SUM([53]Sheet1!$D$3:$D$105)</f>
@@ -6167,7 +6468,7 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C57">
         <f>SUM([54]Sheet1!$C$3:$C$105)</f>
@@ -6175,7 +6476,7 @@
       </c>
       <c r="D57">
         <f>SUM([54]Sheet1!$D$3:$D$105)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <f>SUM([54]Sheet1!$E$3:$E$105)</f>
@@ -6200,11 +6501,11 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C58">
         <f>SUM([55]Sheet1!$C$3:$C$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <f>SUM([55]Sheet1!$D$3:$D$105)</f>
@@ -6212,7 +6513,7 @@
       </c>
       <c r="E58">
         <f>SUM([55]Sheet1!$E$3:$E$105)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <f>SUM([55]Sheet1!$F$3:$F$105)</f>
@@ -6233,7 +6534,7 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C59">
         <f>SUM([56]Sheet1!$C$3:$C$105)</f>
@@ -6245,7 +6546,7 @@
       </c>
       <c r="E59">
         <f>SUM([56]Sheet1!$E$3:$E$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <f>SUM([56]Sheet1!$F$3:$F$105)</f>
@@ -6266,19 +6567,19 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C60">
         <f>SUM([57]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <f>SUM([57]Sheet1!$D$3:$D$105)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E60">
         <f>SUM([57]Sheet1!$E$3:$E$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <f>SUM([57]Sheet1!$F$3:$F$105)</f>
@@ -6299,7 +6600,7 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C61">
         <f>SUM([58]Sheet1!$C$3:$C$105)</f>
@@ -6307,11 +6608,11 @@
       </c>
       <c r="D61">
         <f>SUM([58]Sheet1!$D$3:$D$105)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <f>SUM([58]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61">
         <f>SUM([58]Sheet1!$F$3:$F$105)</f>
@@ -6332,15 +6633,15 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62">
         <f>SUM([59]Sheet1!$C$3:$C$105)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <f>SUM([59]Sheet1!$D$3:$D$105)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <f>SUM([59]Sheet1!$E$3:$E$105)</f>
@@ -6365,23 +6666,23 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C63">
         <f>SUM([60]Sheet1!$C$3:$C$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <f>SUM([60]Sheet1!$D$3:$D$105)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E63">
         <f>SUM([60]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
         <f>SUM([60]Sheet1!$F$3:$F$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <f>SUM([60]Sheet1!$H$3:$H$105)</f>
@@ -6398,11 +6699,11 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C64">
         <f>SUM([61]Sheet1!$C$3:$C$105)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64">
         <f>SUM([61]Sheet1!$D$3:$D$105)</f>
@@ -6431,7 +6732,7 @@
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C65">
         <f>SUM([62]Sheet1!$C$3:$C$105)</f>
@@ -6439,7 +6740,7 @@
       </c>
       <c r="D65">
         <f>SUM([62]Sheet1!$D$3:$D$105)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E65">
         <f>SUM([62]Sheet1!$E$3:$E$105)</f>
@@ -6464,15 +6765,15 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C66">
         <f>SUM([63]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <f>SUM([63]Sheet1!$D$3:$D$105)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <f>SUM([63]Sheet1!$E$3:$E$105)</f>
@@ -6497,23 +6798,23 @@
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C67">
         <f>SUM([64]Sheet1!$C$3:$C$105)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D67">
         <f>SUM([64]Sheet1!$D$3:$D$105)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67">
         <f>SUM([64]Sheet1!$E$3:$E$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <f>SUM([64]Sheet1!$F$3:$F$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
         <f>SUM([64]Sheet1!$H$3:$H$105)</f>
@@ -6530,7 +6831,7 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C68">
         <f>SUM([65]Sheet1!$C$3:$C$105)</f>
@@ -6538,11 +6839,11 @@
       </c>
       <c r="D68">
         <f>SUM([65]Sheet1!$D$3:$D$105)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E68">
         <f>SUM([65]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <f>SUM([65]Sheet1!$F$3:$F$105)</f>
@@ -6563,7 +6864,7 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C69">
         <f>SUM([66]Sheet1!$C$3:$C$105)</f>
@@ -6571,7 +6872,7 @@
       </c>
       <c r="D69">
         <f>SUM([66]Sheet1!$D$3:$D$105)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69">
         <f>SUM([66]Sheet1!$E$3:$E$105)</f>
@@ -6596,11 +6897,11 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C70">
         <f>SUM([67]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D70">
         <f>SUM([67]Sheet1!$D$3:$D$105)</f>
@@ -6608,7 +6909,7 @@
       </c>
       <c r="E70">
         <f>SUM([67]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <f>SUM([67]Sheet1!$F$3:$F$105)</f>
@@ -6616,7 +6917,7 @@
       </c>
       <c r="H70">
         <f>SUM([67]Sheet1!$H$3:$H$105)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <f>SUM([67]Sheet1!$I$3:$I$105)</f>
@@ -6629,15 +6930,15 @@
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C71">
         <f>SUM([68]Sheet1!$C$3:$C$105)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71">
         <f>SUM([68]Sheet1!$D$3:$D$105)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <f>SUM([68]Sheet1!$E$3:$E$105)</f>
@@ -6657,12 +6958,12 @@
       </c>
       <c r="J71">
         <f>SUM([68]Sheet1!$J$3:$J$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C72">
         <f>SUM([69]Sheet1!$C$3:$C$105)</f>
@@ -6695,11 +6996,11 @@
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="C73">
         <f>SUM([70]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <f>SUM([70]Sheet1!$D$3:$D$105)</f>
@@ -6707,7 +7008,7 @@
       </c>
       <c r="E73">
         <f>SUM([70]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
         <f>SUM([70]Sheet1!$F$3:$F$105)</f>
@@ -6719,7 +7020,7 @@
       </c>
       <c r="I73">
         <f>SUM([70]Sheet1!$I$3:$I$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
         <f>SUM([70]Sheet1!$J$3:$J$105)</f>
@@ -6728,15 +7029,15 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C74">
         <f>SUM([71]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <f>SUM([71]Sheet1!$D$3:$D$105)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E74">
         <f>SUM([71]Sheet1!$E$3:$E$105)</f>
@@ -6748,28 +7049,28 @@
       </c>
       <c r="H74">
         <f>SUM([71]Sheet1!$H$3:$H$105)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <f>SUM([71]Sheet1!$I$3:$I$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74">
         <f>SUM([71]Sheet1!$J$3:$J$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C75">
         <f>SUM([72]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <f>SUM([72]Sheet1!$D$3:$D$105)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E75">
         <f>SUM([72]Sheet1!$E$3:$E$105)</f>
@@ -6777,7 +7078,7 @@
       </c>
       <c r="F75">
         <f>SUM([72]Sheet1!$F$3:$F$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <f>SUM([72]Sheet1!$H$3:$H$105)</f>
@@ -6789,24 +7090,24 @@
       </c>
       <c r="J75">
         <f>SUM([72]Sheet1!$J$3:$J$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C76">
         <f>SUM([73]Sheet1!$C$3:$C$105)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <f>SUM([73]Sheet1!$D$3:$D$105)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E76">
         <f>SUM([73]Sheet1!$E$3:$E$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <f>SUM([73]Sheet1!$F$3:$F$105)</f>
@@ -6827,11 +7128,11 @@
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="C77">
         <f>SUM([74]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <f>SUM([74]Sheet1!$D$3:$D$105)</f>
@@ -6839,7 +7140,7 @@
       </c>
       <c r="E77">
         <f>SUM([74]Sheet1!$E$3:$E$105)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77">
         <f>SUM([74]Sheet1!$F$3:$F$105)</f>
@@ -6860,19 +7161,19 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="C78">
         <f>SUM([75]Sheet1!$C$3:$C$105)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <f>SUM([75]Sheet1!$D$3:$D$105)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <f>SUM([75]Sheet1!$E$3:$E$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <f>SUM([75]Sheet1!$F$3:$F$105)</f>
@@ -6893,7 +7194,7 @@
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C79">
         <f>SUM([76]Sheet1!$C$3:$C$105)</f>
@@ -6901,7 +7202,7 @@
       </c>
       <c r="D79">
         <f>SUM([76]Sheet1!$D$3:$D$105)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <f>SUM([76]Sheet1!$E$3:$E$105)</f>
@@ -6926,19 +7227,19 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C80">
         <f>SUM([77]Sheet1!$C$3:$C$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <f>SUM([77]Sheet1!$D$3:$D$105)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E80">
         <f>SUM([77]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <f>SUM([77]Sheet1!$F$3:$F$105)</f>
@@ -6950,20 +7251,20 @@
       </c>
       <c r="I80">
         <f>SUM([77]Sheet1!$I$3:$I$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80">
         <f>SUM([77]Sheet1!$J$3:$J$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C81">
         <f>SUM([78]Sheet1!$C$3:$C$105)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <f>SUM([78]Sheet1!$D$3:$D$105)</f>
@@ -6971,11 +7272,11 @@
       </c>
       <c r="E81">
         <f>SUM([78]Sheet1!$E$3:$E$105)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <f>SUM([78]Sheet1!$F$3:$F$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
         <f>SUM([78]Sheet1!$H$3:$H$105)</f>
@@ -6992,23 +7293,23 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C82">
         <f>SUM([79]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D82">
         <f>SUM([79]Sheet1!$D$3:$D$105)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E82">
         <f>SUM([79]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
         <f>SUM([79]Sheet1!$F$3:$F$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <f>SUM([79]Sheet1!$H$3:$H$105)</f>
@@ -7025,15 +7326,15 @@
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C83">
         <f>SUM([80]Sheet1!$C$3:$C$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <f>SUM([80]Sheet1!$D$3:$D$105)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83">
         <f>SUM([80]Sheet1!$E$3:$E$105)</f>
@@ -7058,11 +7359,11 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C84">
         <f>SUM([81]Sheet1!$C$3:$C$105)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84">
         <f>SUM([81]Sheet1!$D$3:$D$105)</f>
@@ -7070,11 +7371,11 @@
       </c>
       <c r="E84">
         <f>SUM([81]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
         <f>SUM([81]Sheet1!$F$3:$F$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <f>SUM([81]Sheet1!$H$3:$H$105)</f>
@@ -7091,7 +7392,7 @@
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C85">
         <f>SUM([82]Sheet1!$C$3:$C$105)</f>
@@ -7099,11 +7400,11 @@
       </c>
       <c r="D85">
         <f>SUM([82]Sheet1!$D$3:$D$105)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E85">
         <f>SUM([82]Sheet1!$E$3:$E$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <f>SUM([82]Sheet1!$F$3:$F$105)</f>
@@ -7124,7 +7425,7 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C86">
         <f>SUM([83]Sheet1!$C$3:$C$105)</f>
@@ -7132,11 +7433,11 @@
       </c>
       <c r="D86">
         <f>SUM([83]Sheet1!$D$3:$D$105)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E86">
         <f>SUM([83]Sheet1!$E$3:$E$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <f>SUM([83]Sheet1!$F$3:$F$105)</f>
@@ -7144,11 +7445,11 @@
       </c>
       <c r="H86">
         <f>SUM([83]Sheet1!$H$3:$H$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <f>SUM([83]Sheet1!$I$3:$I$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86">
         <f>SUM([83]Sheet1!$J$3:$J$105)</f>
@@ -7157,19 +7458,19 @@
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C87">
         <f>SUM([84]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D87">
         <f>SUM([84]Sheet1!$D$3:$D$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <f>SUM([84]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F87">
         <f>SUM([84]Sheet1!$F$3:$F$105)</f>
@@ -7177,11 +7478,11 @@
       </c>
       <c r="H87">
         <f>SUM([84]Sheet1!$H$3:$H$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <f>SUM([84]Sheet1!$I$3:$I$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87">
         <f>SUM([84]Sheet1!$J$3:$J$105)</f>
@@ -7190,7 +7491,7 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C88">
         <f>SUM([85]Sheet1!$C$3:$C$105)</f>
@@ -7198,7 +7499,7 @@
       </c>
       <c r="D88">
         <f>SUM([85]Sheet1!$D$3:$D$105)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E88">
         <f>SUM([85]Sheet1!$E$3:$E$105)</f>
@@ -7206,7 +7507,7 @@
       </c>
       <c r="F88">
         <f>SUM([85]Sheet1!$F$3:$F$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
         <f>SUM([85]Sheet1!$H$3:$H$105)</f>
@@ -7223,11 +7524,11 @@
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C89">
         <f>SUM([86]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <f>SUM([86]Sheet1!$D$3:$D$105)</f>
@@ -7247,7 +7548,7 @@
       </c>
       <c r="I89">
         <f>SUM([86]Sheet1!$I$3:$I$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89">
         <f>SUM([86]Sheet1!$J$3:$J$105)</f>
@@ -7256,11 +7557,11 @@
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C90">
         <f>SUM([87]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <f>SUM([87]Sheet1!$D$3:$D$105)</f>
@@ -7272,7 +7573,7 @@
       </c>
       <c r="F90">
         <f>SUM([87]Sheet1!$F$3:$F$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
         <f>SUM([87]Sheet1!$H$3:$H$105)</f>
@@ -7280,7 +7581,7 @@
       </c>
       <c r="I90">
         <f>SUM([87]Sheet1!$I$3:$I$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90">
         <f>SUM([87]Sheet1!$J$3:$J$105)</f>
@@ -7289,19 +7590,19 @@
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C91">
         <f>SUM([88]Sheet1!$C$3:$C$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <f>SUM([88]Sheet1!$D$3:$D$105)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <f>SUM([88]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
         <f>SUM([88]Sheet1!$F$3:$F$105)</f>
@@ -7322,7 +7623,7 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C92">
         <f>SUM([89]Sheet1!$C$3:$C$105)</f>
@@ -7330,11 +7631,11 @@
       </c>
       <c r="D92">
         <f>SUM([89]Sheet1!$D$3:$D$105)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E92">
         <f>SUM([89]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
         <f>SUM([89]Sheet1!$F$3:$F$105)</f>
@@ -7342,11 +7643,11 @@
       </c>
       <c r="H92">
         <f>SUM([89]Sheet1!$H$3:$H$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <f>SUM([89]Sheet1!$I$3:$I$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
         <f>SUM([89]Sheet1!$J$3:$J$105)</f>
@@ -7355,11 +7656,11 @@
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C93">
         <f>SUM([90]Sheet1!$C$3:$C$105)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <f>SUM([90]Sheet1!$D$3:$D$105)</f>
@@ -7375,11 +7676,11 @@
       </c>
       <c r="H93">
         <f>SUM([90]Sheet1!$H$3:$H$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <f>SUM([90]Sheet1!$I$3:$I$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93">
         <f>SUM([90]Sheet1!$J$3:$J$105)</f>
@@ -7388,15 +7689,15 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C94">
         <f>SUM([91]Sheet1!$C$3:$C$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <f>SUM([91]Sheet1!$D$3:$D$105)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E94">
         <f>SUM([91]Sheet1!$E$3:$E$105)</f>
@@ -7421,19 +7722,19 @@
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C95">
         <f>SUM([92]Sheet1!$C$3:$C$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <f>SUM([92]Sheet1!$D$3:$D$105)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E95">
         <f>SUM([92]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
         <f>SUM([92]Sheet1!$F$3:$F$105)</f>
@@ -7454,7 +7755,7 @@
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C96">
         <f>SUM([93]Sheet1!$C$3:$C$105)</f>
@@ -7462,7 +7763,7 @@
       </c>
       <c r="D96">
         <f>SUM([93]Sheet1!$D$3:$D$105)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E96">
         <f>SUM([93]Sheet1!$E$3:$E$105)</f>
@@ -7487,7 +7788,7 @@
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C97">
         <f>SUM([94]Sheet1!$C$3:$C$105)</f>
@@ -7499,7 +7800,7 @@
       </c>
       <c r="E97">
         <f>SUM([94]Sheet1!$E$3:$E$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <f>SUM([94]Sheet1!$F$3:$F$105)</f>
@@ -7520,7 +7821,7 @@
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C98">
         <f>SUM([95]Sheet1!$C$3:$C$105)</f>
@@ -7532,7 +7833,7 @@
       </c>
       <c r="E98">
         <f>SUM([95]Sheet1!$E$3:$E$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
         <f>SUM([95]Sheet1!$F$3:$F$105)</f>
@@ -7553,11 +7854,11 @@
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C99">
         <f>SUM([96]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D99">
         <f>SUM([96]Sheet1!$D$3:$D$105)</f>
@@ -7586,19 +7887,19 @@
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C100">
         <f>SUM([97]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100">
         <f>SUM([97]Sheet1!$D$3:$D$105)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E100">
         <f>SUM([97]Sheet1!$E$3:$E$105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <f>SUM([97]Sheet1!$F$3:$F$105)</f>
@@ -7619,7 +7920,7 @@
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C101">
         <f>SUM([98]Sheet1!$C$3:$C$105)</f>
@@ -7643,7 +7944,7 @@
       </c>
       <c r="I101">
         <f>SUM([98]Sheet1!$I$3:$I$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101">
         <f>SUM([98]Sheet1!$J$3:$J$105)</f>
@@ -7652,7 +7953,7 @@
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C102">
         <f>SUM([99]Sheet1!$C$3:$C$105)</f>
@@ -7685,19 +7986,19 @@
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C103">
         <f>SUM([100]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D103">
         <f>SUM([100]Sheet1!$D$3:$D$105)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E103">
         <f>SUM([100]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
         <f>SUM([100]Sheet1!$F$3:$F$105)</f>
@@ -7718,11 +8019,11 @@
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C104">
         <f>SUM([101]Sheet1!$C$3:$C$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104">
         <f>SUM([101]Sheet1!$D$3:$D$105)</f>
@@ -7730,7 +8031,7 @@
       </c>
       <c r="E104">
         <f>SUM([101]Sheet1!$E$3:$E$105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
         <f>SUM([101]Sheet1!$F$3:$F$105)</f>
@@ -7749,14 +8050,272 @@
         <v>0</v>
       </c>
     </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105">
+        <f>SUM([102]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <f>SUM([102]Sheet1!$D$3:$D$105)</f>
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <f>SUM([102]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <f>SUM([102]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <f>SUM([102]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <f>SUM([102]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <f>SUM([102]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>102</v>
+      </c>
+      <c r="C106">
+        <f>SUM([103]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <f>SUM([103]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <f>SUM([103]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <f>SUM([103]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <f>SUM([103]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <f>SUM([103]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <f>SUM([103]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107">
+        <f>SUM([104]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <f>SUM([104]Sheet1!$D$3:$D$105)</f>
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <f>SUM([104]Sheet1!$E$3:$E$105)</f>
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <f>SUM([104]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <f>SUM([104]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <f>SUM([104]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <f>SUM([104]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108">
+        <f>SUM([105]Sheet1!$C$3:$C$105)</f>
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <f>SUM([105]Sheet1!$D$3:$D$105)</f>
+        <v>3</v>
+      </c>
+      <c r="E108">
+        <f>SUM([105]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <f>SUM([105]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <f>SUM([105]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <f>SUM([105]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <f>SUM([105]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109">
+        <f>SUM([106]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <f>SUM([106]Sheet1!$D$3:$D$105)</f>
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <f>SUM([106]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <f>SUM([106]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <f>SUM([106]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <f>SUM([106]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <f>SUM([106]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110">
+        <f>SUM([107]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <f>SUM([107]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <f>SUM([107]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <f>SUM([107]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <f>SUM([107]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <f>SUM([107]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <f>SUM([107]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111">
+        <f>SUM([108]Sheet1!$C$3:$C$105)</f>
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <f>SUM([108]Sheet1!$D$3:$D$105)</f>
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <f>SUM([108]Sheet1!$E$3:$E$105)</f>
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <f>SUM([108]Sheet1!$F$3:$F$105)</f>
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <f>SUM([108]Sheet1!$H$3:$H$105)</f>
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <f>SUM([108]Sheet1!$I$3:$I$105)</f>
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <f>SUM([108]Sheet1!$J$3:$J$105)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="X9:Y9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:J111">
+    <sortCondition ref="B4:B111"/>
+  </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="S4:T4"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="X3:AE3"/>
+    <mergeCell ref="X2:AE2"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AC3:AE3"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:F104">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:J104">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -7778,7 +8337,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:J104">
+  <conditionalFormatting sqref="C4:J111">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -7789,17 +8348,19 @@
         <color theme="9" tint="0.59999389629810485"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E20B483-B695-4FC0-AA3A-708AB8C876FD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>